--- a/Excelsheet/Excel_Acuity.xlsx
+++ b/Excelsheet/Excel_Acuity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>pass2</t>
   </si>
   <si>
-    <t>sj7@grr.la</t>
-  </si>
-  <si>
     <t>Invalid acuity admin login</t>
   </si>
   <si>
@@ -311,39 +308,12 @@
     <t>heger1</t>
   </si>
   <si>
-    <t>Firsthw</t>
-  </si>
-  <si>
-    <t>lasthw</t>
-  </si>
-  <si>
-    <t>11/23/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>11/24/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>11/25/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>11/26/2018  3:09:00 AM</t>
-  </si>
-  <si>
-    <t>11/27/2018  3:09:00 AM</t>
-  </si>
-  <si>
     <t>Newone@123</t>
   </si>
   <si>
-    <t>asp69@grr.la</t>
-  </si>
-  <si>
     <t>Chethan@123</t>
   </si>
   <si>
-    <t>acuity67@grr.la</t>
-  </si>
-  <si>
     <t>Ambulance Registration</t>
   </si>
   <si>
@@ -395,25 +365,55 @@
     <t>Assign Ambulance</t>
   </si>
   <si>
-    <t>AR209</t>
-  </si>
-  <si>
-    <t>11/23/2018</t>
-  </si>
-  <si>
-    <t>ALS12</t>
-  </si>
-  <si>
-    <t>KA04P8412</t>
-  </si>
-  <si>
-    <t>crew001@grr.la</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
-    <t>https://uat.acuity-link.com/acuityLink</t>
+    <t>http://172.246.126.44:8080/acuityLink/login.do</t>
+  </si>
+  <si>
+    <t>asp70@grr.la</t>
+  </si>
+  <si>
+    <t>11/30/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>12/01/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>12/02/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>12/03/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>12/04/2018  3:09:00 AM</t>
+  </si>
+  <si>
+    <t>acuity68@grr.la</t>
+  </si>
+  <si>
+    <t>ALq16</t>
+  </si>
+  <si>
+    <t>KA02P2412</t>
+  </si>
+  <si>
+    <t>crew002@grr.la</t>
+  </si>
+  <si>
+    <t>AT206</t>
+  </si>
+  <si>
+    <t>11/30/2018</t>
+  </si>
+  <si>
+    <t>Firsthi1</t>
+  </si>
+  <si>
+    <t>lasthi2</t>
+  </si>
+  <si>
+    <t>sj8@grr.la</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,6 +539,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -569,9 +571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,30 +876,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -939,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -962,25 +961,25 @@
       <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>94</v>
+      <c r="N3" s="12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17"/>
+      <c r="A5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="25"/>
+      <c r="A6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -997,18 +996,18 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="F10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="B10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="F10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
@@ -1018,67 +1017,67 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2">
         <v>1111111111</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2">
         <v>1211111111</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="H16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="H16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1087,96 +1086,96 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="H17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="I23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" s="7"/>
     </row>
     <row r="24" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>1111111111</v>
@@ -1188,26 +1187,26 @@
         <v>3</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="10"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="C28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -1216,67 +1215,67 @@
         <v>18</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="H30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1302,11 +1301,11 @@
     <hyperlink ref="D7" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="C12" r:id="rId7"/>
-    <hyperlink ref="N3" r:id="rId8"/>
-    <hyperlink ref="H18" r:id="rId9"/>
-    <hyperlink ref="J18" r:id="rId10"/>
-    <hyperlink ref="I18" r:id="rId11"/>
-    <hyperlink ref="B3" r:id="rId12"/>
+    <hyperlink ref="H18" r:id="rId8"/>
+    <hyperlink ref="J18" r:id="rId9"/>
+    <hyperlink ref="I18" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId11"/>
+    <hyperlink ref="N3" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -1318,7 +1317,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,16 +1331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1389,46 +1388,46 @@
         <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2">
         <v>2222222222</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1447,86 +1446,86 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D16" s="13">
         <v>8095930101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="20"/>
+      <c r="A18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>130</v>
+      <c r="A23" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="B23" s="2"/>
     </row>
@@ -1550,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,16 +1564,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1604,7 +1603,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1613,16 +1612,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>19420</v>
+        <v>19421</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="H3" s="2">
         <v>1414141414</v>
